--- a/Basic_rate_making/wk5/chain_ladder_technique.xlsx
+++ b/Basic_rate_making/wk5/chain_ladder_technique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.cirelli\Desktop\repositories\gsu_fall_2020\Basic_rate_making\wk5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2E34B8-F97C-441C-9289-D60861C8313E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37B51A-3E0E-4E0F-B064-DDBFC5F1AEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,9 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,6 +674,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982194-2F24-4F61-8A7C-BF696EB61515}">
   <dimension ref="A2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2880,15 +2880,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -3384,15 +3384,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
@@ -3557,14 +3557,14 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
@@ -3918,16 +3918,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="A39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
